--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD2_Contacts_150520.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD2_Contacts_150520.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>Campo</t>
   </si>
@@ -188,20 +188,37 @@
     <t>Language Main</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>Academic Title</t>
   </si>
   <si>
-    <t>Este listado tendrá que depender del país</t>
+    <t>TB Academic Titles
+[Title]</t>
+  </si>
+  <si>
+    <t>Title/Honorific</t>
+  </si>
+  <si>
+    <t>TB Honorifics
+[Title]</t>
+  </si>
+  <si>
+    <t>Multi-valor</t>
+  </si>
+  <si>
+    <t>El título académico del contacto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El honorífico del contacto (Mr., Mrs., Ms., etc...). </t>
+  </si>
+  <si>
+    <t>Quizás sería más fácil hacerlo un campo de cadena de texto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +282,13 @@
       <color theme="1"/>
       <name val="MS Sans Serif"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -360,7 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -417,6 +441,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>12</v>
       </c>
@@ -821,32 +846,48 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="F6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="F7" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="G7" s="14" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -931,7 +972,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="13" t="s">
         <v>7</v>

--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD2_Contacts_150520.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD2_Contacts_150520.xlsx
@@ -83,10 +83,6 @@
     <t>Solo uno</t>
   </si>
   <si>
-    <t xml:space="preserve">El nombre del contacto.
-</t>
-  </si>
-  <si>
     <t>Leyenda Obligatorio</t>
   </si>
   <si>
@@ -94,10 +90,6 @@
   </si>
   <si>
     <t>Obligatorio pero en combinación con otro campo. O uno, u otro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El apellido del contacto.
-</t>
   </si>
   <si>
     <t>"+" [CódigoTelPais] [espacio] [num]</t>
@@ -212,6 +204,12 @@
   </si>
   <si>
     <t>Quizás sería más fácil hacerlo un campo de cadena de texto</t>
+  </si>
+  <si>
+    <t>El nombre del contacto.</t>
+  </si>
+  <si>
+    <t>El apellido del contacto.</t>
   </si>
 </sst>
 </file>
@@ -384,7 +382,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -438,10 +436,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,7 +748,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -753,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>2</v>
@@ -771,7 +775,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>13</v>
@@ -781,10 +785,10 @@
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -792,7 +796,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>13</v>
@@ -802,10 +806,10 @@
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -813,20 +817,20 @@
         <v>12</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>35</v>
+      <c r="G4" s="22" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -842,52 +846,52 @@
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
-      <c r="G5" s="14" t="s">
-        <v>38</v>
+      <c r="G5" s="21" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>60</v>
+      <c r="G6" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>58</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -905,9 +909,9 @@
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="21" t="s">
         <v>17</v>
       </c>
     </row>
@@ -926,10 +930,10 @@
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -947,16 +951,16 @@
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="21" t="s">
         <v>24</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>13</v>
@@ -966,10 +970,10 @@
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -985,8 +989,8 @@
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="14" t="s">
-        <v>28</v>
+      <c r="G12" s="21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1002,10 +1006,10 @@
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
@@ -1013,39 +1017,39 @@
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>30</v>
+      <c r="G14" s="21" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>31</v>
+      <c r="G15" s="21" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1061,8 +1065,8 @@
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="14" t="s">
-        <v>32</v>
+      <c r="G16" s="21" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -1076,47 +1080,47 @@
         <v>14</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="14" t="s">
-        <v>36</v>
+      <c r="G18" s="21" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="19"/>
+      <c r="A20" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="20"/>
     </row>
     <row r="21" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
@@ -1124,7 +1128,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD2_Contacts_150520.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD2_Contacts_150520.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
   <si>
     <t>Campo</t>
   </si>
@@ -183,10 +183,6 @@
     <t>Academic Title</t>
   </si>
   <si>
-    <t>TB Academic Titles
-[Title]</t>
-  </si>
-  <si>
     <t>Title/Honorific</t>
   </si>
   <si>
@@ -194,9 +190,6 @@
 [Title]</t>
   </si>
   <si>
-    <t>Multi-valor</t>
-  </si>
-  <si>
     <t>El título académico del contacto.</t>
   </si>
   <si>
@@ -210,6 +203,9 @@
   </si>
   <si>
     <t>El apellido del contacto.</t>
+  </si>
+  <si>
+    <t>Texto libre</t>
   </si>
 </sst>
 </file>
@@ -437,14 +433,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -730,7 +726,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,8 +783,8 @@
       <c r="F2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>59</v>
+      <c r="G2" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -808,8 +804,8 @@
       <c r="F3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>60</v>
+      <c r="G3" s="20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -829,7 +825,7 @@
       <c r="F4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>33</v>
       </c>
     </row>
@@ -846,52 +842,50 @@
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="21" t="s">
-        <v>57</v>
+      <c r="G6" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>52</v>
+        <v>59</v>
+      </c>
+      <c r="D7" s="14">
+        <v>255</v>
       </c>
       <c r="E7" s="14"/>
-      <c r="F7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="21" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -911,7 +905,7 @@
       <c r="F8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="20" t="s">
         <v>17</v>
       </c>
     </row>
@@ -932,7 +926,7 @@
       <c r="F9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="20" t="s">
         <v>23</v>
       </c>
     </row>
@@ -953,7 +947,7 @@
       <c r="F10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -972,7 +966,7 @@
       <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -989,7 +983,7 @@
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="20" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1008,7 +1002,7 @@
       <c r="F13" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1029,7 +1023,7 @@
       <c r="F14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1048,7 +1042,7 @@
       <c r="F15" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1065,7 +1059,7 @@
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1086,7 +1080,7 @@
       <c r="F17" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="21" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1105,15 +1099,15 @@
       <c r="F18" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="20" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="20"/>
+      <c r="B20" s="22"/>
     </row>
     <row r="21" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">

--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD2_Contacts_150520.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD2_Contacts_150520.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Campos\Desktop\Documents\GitHub\Ingeteam\DRE\cap08-BasesDeDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\Ingeteam\DRE\cap08-BasesDeDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
   <si>
     <t>Campo</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>El lenguaje principal del contacto para saber en qué idioma comunicarse con él/ella.</t>
-  </si>
-  <si>
-    <t>El segundo lenguaje con el que se podrá interactuar con el contacto.</t>
   </si>
   <si>
     <t>Comentarios sobre el contacto.</t>
@@ -174,12 +171,6 @@
     <t>Mobile 2</t>
   </si>
   <si>
-    <t>Language Secondary</t>
-  </si>
-  <si>
-    <t>Language Main</t>
-  </si>
-  <si>
     <t>Academic Title</t>
   </si>
   <si>
@@ -190,15 +181,9 @@
 [Title]</t>
   </si>
   <si>
-    <t>El título académico del contacto.</t>
-  </si>
-  <si>
     <t xml:space="preserve">El honorífico del contacto (Mr., Mrs., Ms., etc...). </t>
   </si>
   <si>
-    <t>Quizás sería más fácil hacerlo un campo de cadena de texto</t>
-  </si>
-  <si>
     <t>El nombre del contacto.</t>
   </si>
   <si>
@@ -206,6 +191,21 @@
   </si>
   <si>
     <t>Texto libre</t>
+  </si>
+  <si>
+    <t>Language (Main)</t>
+  </si>
+  <si>
+    <t>Other Languages</t>
+  </si>
+  <si>
+    <t>Multi-valor</t>
+  </si>
+  <si>
+    <t>Otros idiomas con los que se podrá interactuar con el contacto.</t>
+  </si>
+  <si>
+    <t>Títulos académicos del contacto.</t>
   </si>
 </sst>
 </file>
@@ -726,7 +726,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,7 +744,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>2</v>
@@ -771,7 +771,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>13</v>
@@ -781,10 +781,10 @@
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -792,7 +792,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>13</v>
@@ -802,10 +802,10 @@
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -813,20 +813,20 @@
         <v>12</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -843,50 +843,44 @@
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>56</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="14">
-        <v>255</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>56</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
@@ -903,7 +897,7 @@
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>17</v>
@@ -954,7 +948,7 @@
     <row r="11" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>13</v>
@@ -1000,7 +994,7 @@
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>27</v>
@@ -1011,13 +1005,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14" t="s">
@@ -1030,20 +1024,20 @@
     <row r="15" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="13" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="14" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1060,7 +1054,7 @@
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -1074,33 +1068,33 @@
         <v>14</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
